--- a/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
@@ -451,603 +451,813 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4754</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>121006</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>72.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成新锐产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方甑智混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000594</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大摩进取优选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>121008</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银成长优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000534</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长盛高端装备制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519993</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信增利动态策略混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>75.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002850</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方甑智混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>22.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001667</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方转型增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>72.83</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>58.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>582003</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东吴配置优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004209</t>
+          <t>000594</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成智惠量化多策略灵活配置混合</t>
+          <t>大摩进取优选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>24.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009128</t>
+          <t>090018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明亚价值长青混合A</t>
+          <t>大成新锐产业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>71.11</t>
+          <t>21.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009129</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>明亚价值长青混合C</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71.11</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2226</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>121005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>国投瑞银创新动力混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005331</t>
+          <t>166011</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>益民优势安享灵活配置混合</t>
+          <t>中欧盛世成长混合 (LOF) -A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001888</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5223</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090018</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成新锐产业混合</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.66</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银创新动力混合</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>73.49</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>166011</t>
+          <t>010363</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
+          <t>信达澳银匠心臻选两年持有期混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>20.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004233</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000410</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>益民服务领先灵活配置混合</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006199</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长盛同锦研究精选混合</t>
+          <t>南方盛元红利混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>121008</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>国投瑞银成长优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000594</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大摩进取优选股票</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>007177</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>浙商智能行业优选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>002085</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>长盛互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010363</t>
+          <t>001667</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
+          <t>南方转型增长灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010423</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010424</t>
+          <t>006199</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
+          <t>长盛同锦研究精选混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007177</t>
+          <t>001520</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>浙商智能行业优选混合A</t>
+          <t>国投瑞银研究精选股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007217</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>浙商智能行业优选混合C</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1724,15 +2164,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>70.04</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>001892</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>长盛新兴成长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>001888</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>中欧盛世成长混合 (LOF) -E</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011149</t>
+          <t>000410</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票A</t>
+          <t>益民服务领先灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>011150</t>
+          <t>004233</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票C</t>
+          <t>中欧盛世成长混合 (LOF) -C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001520</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国投瑞银研究精选股票</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>84.27</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>005331</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>益民优势安享灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>121008</t>
+          <t>009128</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国投瑞银成长优选混合</t>
+          <t>明亚价值长青混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001667</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南方转型增长灵活配置混合</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>79.95</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>001892</t>
+          <t>007217</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>长盛新兴成长主题灵活配置混合</t>
+          <t>浙商智能行业优选混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002085</t>
+          <t>009129</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>长盛互联网+主题灵活配置混合</t>
+          <t>明亚价值长青混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2050,25 +2610,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>011149</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>创金合信ESG责任投资股票A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>004209</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>大成智惠量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2116,15 +2696,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>90.29</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>3.62</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2134,25 +2724,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>005105</t>
+          <t>011150</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>富荣福康混合C</t>
+          <t>创金合信ESG责任投资股票C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>005105</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>南方盛元红利混合</t>
+          <t>富荣福康混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2797,4 +2798,1388 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7996</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4905</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4182,4 +4183,1312 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9997</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5654</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5491,4 +5492,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5500,7 +5501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5511,17 +5512,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5531,14 +5552,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.380000000000001</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5547,14 +5590,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.42</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5563,14 +5628,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.71</v>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5579,13 +5666,2659 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3259</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1472</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1096</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7530</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6205</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6117</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4621</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>66.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8217,7 +8218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8228,17 +8229,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8248,14 +8269,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.7</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>209.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8264,14 +8307,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.380000000000001</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -8280,14 +8345,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.42</v>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8296,14 +8383,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.71</v>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8312,13 +8421,2067 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5794</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4509</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4498</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10364,7 +10365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10375,17 +10376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10395,14 +10416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -10411,14 +10454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.7</v>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -10427,14 +10492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.380000000000001</v>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -10443,14 +10530,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.42</v>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -10459,14 +10568,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>39</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.71</v>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -10475,13 +10606,2463 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004048</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏新锦汇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004049</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏新锦汇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>10.26</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>33.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>9.380000000000001</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>8.42</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>10.71</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.22</v>
       </c>
     </row>
@@ -600,6 +617,2908 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5820</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012904</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014885</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014886</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011267</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011268</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011290</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011291</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3163,7 +6082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5309,7 +8228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8025,7 +10944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9333,7 +12252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10717,7 +13636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12255,7 +15174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002597-金禾实业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>9.199999999999999</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>10.26</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>33.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
-        <v>9.380000000000001</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>8.42</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>10.71</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,846 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4754</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方甑智混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1450,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3837</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012485</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信汇益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013636</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012486</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信汇益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013637</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3518,7 +6115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6082,7 +8679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8228,7 +10825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10944,7 +13541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12252,7 +14849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13636,7 +16233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15172,820 +17769,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1830</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7982</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6617</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5107</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5027</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>090018</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成新锐产业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4754</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001301</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3892</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3655</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519993</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长信增利动态策略混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>75.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2971</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>58.61</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2624</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>121008</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银成长优选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2269</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000594</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大摩进取优选股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1379</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001667</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方转型增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0973</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0813</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000534</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长盛高端装备制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0810</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0756</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>72.83</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0483</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>582003</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东吴配置优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002850</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方甑智混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>22.04</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>